--- a/Данные скачивания таблиц/Среднемесячная зарплата, руб.xlsx
+++ b/Данные скачивания таблиц/Среднемесячная зарплата, руб.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
-    <t>Городские округа:</t>
+    <t>МО:</t>
   </si>
   <si>
     <t>2011</t>
